--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1265"/>
+  <dimension ref="A1:R1267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7302,7 +7302,7 @@
         <v>2</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -14806,7 +14806,7 @@
         <v>2</v>
       </c>
       <c r="R256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -15982,7 +15982,7 @@
         <v>0</v>
       </c>
       <c r="R277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="R280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="R293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -19678,7 +19678,7 @@
         <v>2</v>
       </c>
       <c r="R343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -24046,7 +24046,7 @@
         <v>2</v>
       </c>
       <c r="R421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -26062,7 +26062,7 @@
         <v>1</v>
       </c>
       <c r="R457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -29030,7 +29030,7 @@
         <v>0</v>
       </c>
       <c r="R510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -31830,7 +31830,7 @@
         <v>2</v>
       </c>
       <c r="R560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -33902,7 +33902,7 @@
         <v>1</v>
       </c>
       <c r="R597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -38382,7 +38382,7 @@
         <v>0</v>
       </c>
       <c r="R677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -41014,7 +41014,7 @@
         <v>0</v>
       </c>
       <c r="R724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
@@ -43030,7 +43030,7 @@
         <v>2</v>
       </c>
       <c r="R760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761">
@@ -44598,7 +44598,7 @@
         <v>2</v>
       </c>
       <c r="R788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789">
@@ -45326,7 +45326,7 @@
         <v>0</v>
       </c>
       <c r="R801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -46222,7 +46222,7 @@
         <v>2</v>
       </c>
       <c r="R817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818">
@@ -47006,7 +47006,7 @@
         <v>2</v>
       </c>
       <c r="R831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832">
@@ -49246,7 +49246,7 @@
         <v>1</v>
       </c>
       <c r="R871" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872">
@@ -70797,7 +70797,7 @@
         <v>20</v>
       </c>
       <c r="O1256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1256" t="n">
         <v>0</v>
@@ -71309,7 +71309,117 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>379</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>389.3999938964844</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>366</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>373.5499877929688</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>38874332</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>372.2999877929688</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>378.3999938964844</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>363</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>375.75</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>375.75</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>27892894</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1268"/>
+  <dimension ref="A1:R1269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71477,7 +71477,63 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>387.3999938964844</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>366.8999938964844</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>381.7000122070312</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>381.7000122070312</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>30887703</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -71533,7 +71533,9 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -71589,7 +71589,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -71869,7 +71869,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71923,7 +71925,9 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
@@ -71977,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72031,7 +72037,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72085,7 +72093,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1279"/>
+  <dimension ref="A1:R1280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71581,7 +71581,7 @@
         <v>23</v>
       </c>
       <c r="O1270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1270" t="n">
         <v>0</v>
@@ -72096,6 +72096,60 @@
       <c r="R1279" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>397</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>405</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>395</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>396.1000061035156</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>396.1000061035156</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>28612444</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1280"/>
+  <dimension ref="A1:R1281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72149,7 +72149,63 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>397.25</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>397.2999877929688</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>382.7999877929688</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>390.8999938964844</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>390.8999938964844</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>13911557</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1281"/>
+  <dimension ref="A1:R1288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71693,7 +71693,7 @@
         <v>23</v>
       </c>
       <c r="O1272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1272" t="n">
         <v>0</v>
@@ -72205,7 +72205,387 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>388</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>392.2999877929688</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>383.1000061035156</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>387.2999877929688</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>387.2999877929688</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>11437105</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>385.6000061035156</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>417.3999938964844</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>384</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>75448395</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>410</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>431.7999877929688</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>405.25</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>416.6000061035156</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>416.6000061035156</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>41934345</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>424.4500122070312</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>405.3999938964844</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>407.1499938964844</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>407.1499938964844</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>20335982</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>408</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>414</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>401.3500061035156</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>409.1000061035156</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>409.1000061035156</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>13277791</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>414</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>420.8500061035156</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>406.6499938964844</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>413.9500122070312</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>413.9500122070312</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>20947231</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>418</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>424.3999938964844</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>410.6000061035156</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>416.6000061035156</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>416.6000061035156</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>23109944</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -72261,7 +72261,9 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72315,7 +72317,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72369,7 +72373,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72423,7 +72429,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72477,7 +72485,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72531,7 +72541,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72585,7 +72597,9 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1288"/>
+  <dimension ref="A1:R1293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72601,6 +72601,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>417</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>421.2999877929688</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>413.5</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>415</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>415</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>10190705</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>415.8500061035156</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>417.0499877929688</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>404.2999877929688</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>411</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>411</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>11365895</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>415.6000061035156</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>421.2000122070312</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>416.9500122070312</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>416.9500122070312</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>12879072</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>419</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>430.9500122070312</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>417.25</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>418.75</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>418.75</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>20654664</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>424.9500122070312</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>498.5</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>424.5499877929688</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>491.0499877929688</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>491.0499877929688</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>152289751</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1293"/>
+  <dimension ref="A1:R1302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72653,7 +72653,9 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72707,7 +72709,9 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
@@ -72761,7 +72765,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72815,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72869,7 +72877,495 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>508</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>578.9500122070312</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>508</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>565.9000244140625</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>565.9000244140625</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>178360632</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>587</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>619</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>534.1500244140625</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>542.75</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>542.75</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>156242236</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>618.4000244140625</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>557.75</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>211547060</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>634.9500122070312</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>643.7999877929688</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>606</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>630</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>630</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>95328327</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>628</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>645</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>610.1500244140625</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>626.75</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>626.75</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>56153729</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>637</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>647</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>622.25</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>626</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>626</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>29639356</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>631.7999877929688</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>605</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>620.1500244140625</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>620.1500244140625</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>29931644</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>612</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>626</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>582.6500244140625</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>586.1500244140625</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>586.1500244140625</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>35159677</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>582.3499755859375</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>637.9000244140625</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>570.2999877929688</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>613.75</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>613.75</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>73215396</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1302"/>
+  <dimension ref="A1:R1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72933,7 +72933,9 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72987,7 +72989,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -73041,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73095,7 +73101,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73149,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73195,7 +73205,7 @@
         <v>29</v>
       </c>
       <c r="O1299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1299" t="n">
         <v>0</v>
@@ -73203,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73257,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73311,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73365,7 +73381,549 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>615</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>630.7000122070312</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>598.4500122070312</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>624.0999755859375</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>624.0999755859375</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>34133877</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>634.7999877929688</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>639</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>561.7000122070312</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>590.2999877929688</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>590.2999877929688</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>57366312</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>591.1500244140625</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>607</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>583</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>593.75</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>593.75</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>18166209</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>590</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>595.8499755859375</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>573.5999755859375</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>575.7000122070312</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>575.7000122070312</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>17201205</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>583.5</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>550.0499877929688</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>552.3499755859375</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>552.3499755859375</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>21601968</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>557.5</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>607.5499877929688</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>555.5499877929688</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>606.2999877929688</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>606.2999877929688</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>48942004</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>614.7000122070312</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>626.7999877929688</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>611</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>614.4500122070312</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>614.4500122070312</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>26215668</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>614</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>615.7000122070312</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>598</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>601.5</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>601.5</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>11846077</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>605.25</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>607</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>591</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>9507451</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>580</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>593.75</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>579</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>589.7999877929688</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>589.7999877929688</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>11154630</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1312"/>
+  <dimension ref="A1:R1317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73437,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73491,7 +73493,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73545,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73599,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73653,7 +73661,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73707,7 +73717,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73761,7 +73773,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73815,7 +73829,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73869,7 +73885,9 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
@@ -73923,7 +73941,279 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>559.7999877929688</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>544.3499755859375</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>550.7999877929688</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>550.7999877929688</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>21657722</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>563.5999755859375</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>542.3499755859375</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>546.0499877929688</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>546.0499877929688</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>13085001</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>565.2999877929688</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>568.9500122070312</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>545.7999877929688</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>565.7999877929688</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>565.7999877929688</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>13370669</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>565.0499877929688</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>583</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>531.4000244140625</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>538.4500122070312</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>538.4500122070312</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>30489387</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>538</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>538</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>514</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>518.1500244140625</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>518.1500244140625</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>23759147</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1317"/>
+  <dimension ref="A1:R1321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73997,7 +73997,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -74051,7 +74053,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74105,7 +74109,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74159,7 +74165,9 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" s="2" t="n">
@@ -74213,7 +74221,225 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>524</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>583</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>522.4000244140625</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>575.8499755859375</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>575.8499755859375</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>61951226</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>581.7000122070312</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>601.9000244140625</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>565</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>569.4500122070312</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>569.4500122070312</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>42007554</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>572</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>575</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>550.1500244140625</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>554.0999755859375</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>554.0999755859375</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>19122889</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>561.0999755859375</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>581.9000244140625</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>561.0999755859375</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>570.6500244140625</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>570.6500244140625</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>21342112</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1321"/>
+  <dimension ref="A1:R1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74277,7 +74277,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74331,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74385,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74439,7 +74445,279 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>581.7999877929688</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>571</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>573.5</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>573.5</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>16785488</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>575</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>575.7999877929688</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>560</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>561.7000122070312</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>561.7000122070312</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>9499106</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>572.75</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>553</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>563.9000244140625</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>563.9000244140625</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>10316563</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>571</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>576.75</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>567</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>570.75</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>570.75</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>10606181</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>570.75</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>594.5</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>568.6500244140625</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>572.7000122070312</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>572.7000122070312</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>26295948</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1326"/>
+  <dimension ref="A1:R1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74213,7 +74213,7 @@
         <v>32</v>
       </c>
       <c r="O1317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1317" t="n">
         <v>0</v>
@@ -74501,7 +74501,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74555,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74609,7 +74613,9 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74663,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74717,7 +74725,279 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>577.5</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>585.6500244140625</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>575.5</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>577.2000122070312</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>577.2000122070312</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>11254234</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>579.7999877929688</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>587</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>572</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>576.0999755859375</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>576.0999755859375</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>13076800</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>579.7999877929688</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>596.5</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>577.3499755859375</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>578.2000122070312</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>22101243</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>583.5</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>584.75</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>572.5999755859375</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>579.7999877929688</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>579.7999877929688</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>13756438</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>584</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>615</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>580.6500244140625</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>607.4000244140625</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>607.4000244140625</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>121669343</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1331"/>
+  <dimension ref="A1:R1336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74781,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74835,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74889,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74943,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74997,7 +75005,279 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>610.5</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>593.5999755859375</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>601.2000122070312</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>601.2000122070312</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>22525336</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>604</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>597</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>600.5</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>600.5</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>9558037</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>598</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>600.7000122070312</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>590.6500244140625</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>592.7000122070312</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>592.7000122070312</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>7537912</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>580.2000122070312</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>581.8499755859375</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>581.8499755859375</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>7030270</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>582.2000122070312</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>584.7999877929688</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>565.4500122070312</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>569.5499877929688</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>569.5499877929688</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>9009963</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1336"/>
+  <dimension ref="A1:R1341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75061,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75115,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75169,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75223,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75277,7 +75285,279 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>569.5499877929688</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>572.25</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>553.3499755859375</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>562.9000244140625</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>562.9000244140625</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>8885002</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>569.9000244140625</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>578.7999877929688</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>563.2000122070312</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>565.4000244140625</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>565.4000244140625</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>7591740</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>567.7999877929688</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>567.7999877929688</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>555.2999877929688</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>556.7000122070312</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>556.7000122070312</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>4565818</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>559.7999877929688</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>561.9000244140625</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>545.0999755859375</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>552</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>552</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>6327534</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>552.5</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>562.9000244140625</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>547.9000244140625</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>555.2999877929688</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>555.2999877929688</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>6901906</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1341"/>
+  <dimension ref="A1:R1346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75053,7 +75053,7 @@
         <v>36</v>
       </c>
       <c r="O1332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1332" t="n">
         <v>0</v>
@@ -75341,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75395,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75449,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75503,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75557,7 +75565,279 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>550</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>554.3499755859375</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>542.5999755859375</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>545.2999877929688</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>545.2999877929688</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>4885521</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>541</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>542.7999877929688</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>530</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>530.5499877929688</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>530.5499877929688</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>6414408</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>528.0499877929688</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>538.3499755859375</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>527</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>528.5999755859375</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>528.5999755859375</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>5345676</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>530.5</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>535.6500244140625</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>501.2000122070312</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>510.2000122070312</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>510.2000122070312</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>13094055</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>512.5</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>549</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>505.7999877929688</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>544.25</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>544.25</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>25003870</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1346"/>
+  <dimension ref="A1:R1351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75621,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75675,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75729,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75783,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75837,7 +75845,279 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>544.25</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>544.4000244140625</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>529</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>534.0499877929688</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>534.0499877929688</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>4782927</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>530</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>530</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>522.0499877929688</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>526.25</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>526.25</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>4043522</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>521</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>532.2999877929688</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>516</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>526.1500244140625</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>526.1500244140625</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>4430623</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>526.0999755859375</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>529.5</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>521.8499755859375</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>521.8499755859375</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>4399204</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>523.7000122070312</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>531</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>522.5999755859375</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>526.3499755859375</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>526.3499755859375</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>4341528</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1351"/>
+  <dimension ref="A1:R1355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75901,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75955,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -76009,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76063,7 +76069,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76117,7 +76125,225 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>521.5</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>516.3499755859375</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>531.4500122070312</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>531.4500122070312</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>4486451</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>530.5</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>523</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>524.7000122070312</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>524.7000122070312</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>2945750</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>510.9500122070312</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>518.4500122070312</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>507</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>509.5</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>509.5</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>3394155</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>507</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>510.7999877929688</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>483.6499938964844</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>493.3999938964844</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>493.3999938964844</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>6485664</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1355"/>
+  <dimension ref="A1:R1360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76181,7 +76181,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76235,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76289,7 +76293,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76343,7 +76349,279 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>490.3999938964844</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>498</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>442.2999877929688</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>451.7000122070312</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>451.7000122070312</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>13067372</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>443.1499938964844</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>494.8500061035156</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>426.4500122070312</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>487.0499877929688</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>487.0499877929688</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>19576332</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>494</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>500.75</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>480.8500061035156</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>480.8500061035156</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>7833917</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>482.2000122070312</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>485.8500061035156</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>475.2000122070312</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>480.5499877929688</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>480.5499877929688</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>3384210</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>487.3500061035156</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>472</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>475.3999938964844</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>475.3999938964844</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>4344300</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1360"/>
+  <dimension ref="A1:R1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76405,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76459,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76513,7 +76517,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76567,7 +76573,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76621,7 +76629,279 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>476</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>478.8999938964844</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>467.25</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>470.5</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>470.5</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>2873914</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>470.9500122070312</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>477</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>466.6499938964844</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>474.2000122070312</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>474.2000122070312</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>2779345</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>472.9500122070312</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>487.25</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>470.7000122070312</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>479.6000061035156</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>479.6000061035156</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>4889153</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>489.0499877929688</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>514.6500244140625</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>485</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>489.6000061035156</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>489.6000061035156</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>19634045</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>483.7999877929688</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>486.5</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>477.2999877929688</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>477.2999877929688</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>4703823</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1365"/>
+  <dimension ref="A1:R1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76453,7 +76453,7 @@
         <v>41</v>
       </c>
       <c r="O1357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1357" t="n">
         <v>0</v>
@@ -76685,7 +76685,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76739,7 +76741,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76793,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76847,7 +76853,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76901,7 +76909,279 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>477.2999877929688</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>482.9500122070312</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>463</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>465.6499938964844</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>465.6499938964844</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>2924934</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>460.0499877929688</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>463.75</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>442.5499877929688</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>442.5499877929688</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>4776339</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>439.9500122070312</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>452.9500122070312</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>421.1000061035156</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>442.1499938964844</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>442.1499938964844</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>7676464</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>444.3999938964844</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>449.8999938964844</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>435.6499938964844</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>441.9500122070312</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>441.9500122070312</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>3737733</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>442.1000061035156</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>414.1000061035156</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>419.75</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>419.75</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>5289252</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1370"/>
+  <dimension ref="A1:R1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76965,7 +76965,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -77019,7 +77021,9 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
@@ -77073,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77127,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77181,7 +77189,225 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>418.8500061035156</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>436.5</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>408.1499938964844</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>6738378</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>442</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>427.5499877929688</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>438.8999938964844</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>438.8999938964844</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>3962720</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>440</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>479.0499877929688</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>436.0499877929688</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>465.3500061035156</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>465.3500061035156</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>14783053</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>467</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>479.7000122070312</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>461.5499877929688</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>471.7999877929688</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>471.7999877929688</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>6608995</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1374"/>
+  <dimension ref="A1:R1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77245,7 +77245,9 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77299,7 +77301,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77353,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77407,7 +77413,333 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>471</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>476.9500122070312</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>468</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>470.9500122070312</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>470.9500122070312</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>1408627</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>469.2999877929688</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>469.2999877929688</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>446.2000122070312</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>446.2000122070312</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>5262254</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>452.0499877929688</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>457</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>441.3500061035156</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>450.8999938964844</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>450.8999938964844</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>7278500</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>466</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>460.5</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>469.6499938964844</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>469.6499938964844</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>6251705</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>486.7000122070312</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>473.2999877929688</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>477.8500061035156</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>477.8500061035156</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>8328110</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>444</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>457.3999938964844</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>443.2999877929688</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>447.9500122070312</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>447.9500122070312</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>8175157</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1380"/>
+  <dimension ref="A1:R1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77237,7 +77237,7 @@
         <v>44</v>
       </c>
       <c r="O1371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1371" t="n">
         <v>0</v>
@@ -77469,7 +77469,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77523,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77577,7 +77581,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77631,7 +77637,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77685,7 +77693,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77739,7 +77749,225 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>445</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>446</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>429.2000122070312</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>436.5499877929688</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>436.5499877929688</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>4899446</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>444</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>450.8500061035156</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>432</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>437.7000122070312</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>437.7000122070312</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>3668960</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>432.25</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>451.8500061035156</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>418</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>419.8500061035156</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>419.8500061035156</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>5236303</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>419.5499877929688</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>428.4500122070312</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>419.5</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>419.5</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>3814197</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1384"/>
+  <dimension ref="A1:R1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77805,7 +77805,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77859,7 +77861,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77913,7 +77917,9 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77967,7 +77973,225 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>418.6499938964844</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>427.8500061035156</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>416.2000122070312</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>416.2000122070312</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>4451811</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>419.5</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>432.1499938964844</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>432.1499938964844</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>5166306</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>427.7000122070312</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>431.7999877929688</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>420</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>421.8500061035156</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>421.8500061035156</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>3599338</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>421.8500061035156</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>424.1499938964844</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>416.7000122070312</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>420.2000122070312</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>420.2000122070312</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>2707871</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1388"/>
+  <dimension ref="A1:R1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77685,7 +77685,7 @@
         <v>45</v>
       </c>
       <c r="O1379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1379" t="n">
         <v>0</v>
@@ -78029,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78083,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78137,7 +78141,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78191,7 +78197,279 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>451.5499877929688</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>462.8999938964844</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>434</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>438.1000061035156</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>438.1000061035156</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>12098123</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>440.2999877929688</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>443.8999938964844</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>432.2000122070312</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>434</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>434</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>3718972</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>435</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>446.7999877929688</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>431.5</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>439.3999938964844</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>439.3999938964844</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>5527098</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>441.75</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>450.7999877929688</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>440.0499877929688</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>443.3500061035156</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>443.3500061035156</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>4500271</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>444.3500061035156</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>444.5499877929688</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>434</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>435.8500061035156</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>435.8500061035156</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>3559527</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1393"/>
+  <dimension ref="A1:R1398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78021,7 +78021,7 @@
         <v>47</v>
       </c>
       <c r="O1385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1385" t="n">
         <v>0</v>
@@ -78253,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78307,7 +78309,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78361,7 +78365,9 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78415,7 +78421,9 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
@@ -78469,7 +78477,279 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>447.1000061035156</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>435.0499877929688</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>437.0499877929688</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>437.0499877929688</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>4210283</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>437.5499877929688</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>436.1499938964844</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>3199416</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>442.4500122070312</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>451.6000061035156</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>439</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>441.25</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>441.25</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>5016587</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>442.7000122070312</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>443.25</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>443.25</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>2835893</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>443</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>468</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>441</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>464.7000122070312</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>464.7000122070312</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>11648913</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1398"/>
+  <dimension ref="A1:R1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78533,7 +78533,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78587,7 +78589,9 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" s="2" t="n">
@@ -78641,7 +78645,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78695,7 +78701,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78749,7 +78757,529 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>465.7000122070312</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>474.6499938964844</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>463.0499877929688</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>470.5499877929688</v>
+      </c>
+      <c r="F1399" t="inlineStr"/>
+      <c r="G1399" t="n">
+        <v>5838413</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>470</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>470.2999877929688</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>455.5499877929688</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>458.6000061035156</v>
+      </c>
+      <c r="F1400" t="inlineStr"/>
+      <c r="G1400" t="n">
+        <v>3950300</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>455.6499938964844</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>482.5</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>455.6499938964844</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>474.25</v>
+      </c>
+      <c r="F1401" t="inlineStr"/>
+      <c r="G1401" t="n">
+        <v>11348824</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>474</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>479</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>471.5</v>
+      </c>
+      <c r="F1402" t="inlineStr"/>
+      <c r="G1402" t="n">
+        <v>4205765</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>468.6499938964844</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>471.3999938964844</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>456.25</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>465.9500122070312</v>
+      </c>
+      <c r="F1403" t="inlineStr"/>
+      <c r="G1403" t="n">
+        <v>3244183</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>467.8999938964844</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>476</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>466.7999877929688</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>469.8999938964844</v>
+      </c>
+      <c r="F1404" t="inlineStr"/>
+      <c r="G1404" t="n">
+        <v>2797117</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>482</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>465.25</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>468.2999877929688</v>
+      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="n">
+        <v>4245937</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>466.8999938964844</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>453.75</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>457.4500122070312</v>
+      </c>
+      <c r="F1406" t="inlineStr"/>
+      <c r="G1406" t="n">
+        <v>2378913</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>450</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>438</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>448.4500122070312</v>
+      </c>
+      <c r="F1407" t="inlineStr"/>
+      <c r="G1407" t="n">
+        <v>2481062</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>451.5499877929688</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>453.6000061035156</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>430.0499877929688</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>433.25</v>
+      </c>
+      <c r="F1408" t="inlineStr"/>
+      <c r="G1408" t="n">
+        <v>2972482</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1408"/>
+  <dimension ref="A1:R1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78811,7 +78811,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78863,7 +78865,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78907,7 +78911,7 @@
         <v>50</v>
       </c>
       <c r="O1401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1401" t="n">
         <v>0</v>
@@ -78915,7 +78919,9 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" s="2" t="n">
@@ -78967,7 +78973,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -79019,7 +79027,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -79071,7 +79081,9 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79123,7 +79135,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79175,7 +79189,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79227,7 +79243,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79279,7 +79297,217 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>437.7000122070312</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>442</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>425.6000061035156</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>429.6000061035156</v>
+      </c>
+      <c r="F1409" t="inlineStr"/>
+      <c r="G1409" t="n">
+        <v>2428886</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>434.8999938964844</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>426.6499938964844</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>428.5499877929688</v>
+      </c>
+      <c r="F1410" t="inlineStr"/>
+      <c r="G1410" t="n">
+        <v>1588615</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>429.75</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>432.8999938964844</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>427.7000122070312</v>
+      </c>
+      <c r="F1411" t="inlineStr"/>
+      <c r="G1411" t="n">
+        <v>1428368</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>427.7000122070312</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>424.1000061035156</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>425.5499877929688</v>
+      </c>
+      <c r="F1412" t="inlineStr"/>
+      <c r="G1412" t="n">
+        <v>1602796</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1412"/>
+  <dimension ref="A1:R1417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79351,7 +79351,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2" t="n">
@@ -79403,7 +79405,9 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2" t="n">
@@ -79455,7 +79459,9 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" s="2" t="n">
@@ -79507,7 +79513,269 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>425</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>429.5</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>404.3999938964844</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>408.2999877929688</v>
+      </c>
+      <c r="F1413" t="inlineStr"/>
+      <c r="G1413" t="n">
+        <v>3813743</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>414</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>413.3500061035156</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>422.7000122070312</v>
+      </c>
+      <c r="F1414" t="inlineStr"/>
+      <c r="G1414" t="n">
+        <v>12688227</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>432.6499938964844</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>421.3999938964844</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>428.1000061035156</v>
+      </c>
+      <c r="F1415" t="inlineStr"/>
+      <c r="G1415" t="n">
+        <v>2926296</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>430.1499938964844</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>432.7000122070312</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>424.25</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>429.5499877929688</v>
+      </c>
+      <c r="F1416" t="inlineStr"/>
+      <c r="G1416" t="n">
+        <v>2481062</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>430.3999938964844</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>439.5</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>430</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>432.1000061035156</v>
+      </c>
+      <c r="F1417" t="inlineStr"/>
+      <c r="G1417" t="n">
+        <v>2536413</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1417"/>
+  <dimension ref="A1:R1422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79567,7 +79567,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79619,7 +79621,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79671,7 +79675,9 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1416">
       <c r="A1416" s="2" t="n">
@@ -79723,7 +79729,9 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" s="2" t="n">
@@ -79775,7 +79783,269 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>434.6000061035156</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>434.7999877929688</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>408.3999938964844</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>410.4500122070312</v>
+      </c>
+      <c r="F1418" t="inlineStr"/>
+      <c r="G1418" t="n">
+        <v>4405141</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>411</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>418.9500122070312</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>411</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>416.1499938964844</v>
+      </c>
+      <c r="F1419" t="inlineStr"/>
+      <c r="G1419" t="n">
+        <v>2593957</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>423.7000122070312</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>412.5499877929688</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>417.3999938964844</v>
+      </c>
+      <c r="F1420" t="inlineStr"/>
+      <c r="G1420" t="n">
+        <v>2899992</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>416</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>418.8999938964844</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>409</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>410.2999877929688</v>
+      </c>
+      <c r="F1421" t="inlineStr"/>
+      <c r="G1421" t="n">
+        <v>1712306</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>405</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>391</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>393.2999877929688</v>
+      </c>
+      <c r="F1422" t="inlineStr"/>
+      <c r="G1422" t="n">
+        <v>4127715</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1422"/>
+  <dimension ref="A1:R1427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79837,7 +79837,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79889,7 +79891,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79941,7 +79945,9 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" s="2" t="n">
@@ -79993,7 +79999,9 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2" t="n">
@@ -80045,7 +80053,269 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>383.8500061035156</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>357.9500122070312</v>
+      </c>
+      <c r="F1423" t="inlineStr"/>
+      <c r="G1423" t="n">
+        <v>8523323</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>378.9500122070312</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>360.6000061035156</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>376.75</v>
+      </c>
+      <c r="F1424" t="inlineStr"/>
+      <c r="G1424" t="n">
+        <v>6050286</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>380.1000061035156</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>387</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>370.5499877929688</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>371.8999938964844</v>
+      </c>
+      <c r="F1425" t="inlineStr"/>
+      <c r="G1425" t="n">
+        <v>3567908</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>391.8500061035156</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>415.2999877929688</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>385.8500061035156</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>411.1499938964844</v>
+      </c>
+      <c r="F1426" t="inlineStr"/>
+      <c r="G1426" t="n">
+        <v>23382354</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>410</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>437.7999877929688</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>407</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>426.3999938964844</v>
+      </c>
+      <c r="F1427" t="inlineStr"/>
+      <c r="G1427" t="n">
+        <v>24208556</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1427"/>
+  <dimension ref="A1:R1432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80107,7 +80107,9 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="2" t="n">
@@ -80159,7 +80161,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80211,7 +80215,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80263,7 +80269,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80315,7 +80323,269 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>429.2000122070312</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>437.4500122070312</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>431.6000061035156</v>
+      </c>
+      <c r="F1428" t="inlineStr"/>
+      <c r="G1428" t="n">
+        <v>9464708</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>433</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>435.7000122070312</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>416.75</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>419.2000122070312</v>
+      </c>
+      <c r="F1429" t="inlineStr"/>
+      <c r="G1429" t="n">
+        <v>7758398</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>423</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>398.6499938964844</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>408</v>
+      </c>
+      <c r="F1430" t="inlineStr"/>
+      <c r="G1430" t="n">
+        <v>5563380</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>408</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>426.8999938964844</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>418.4500122070312</v>
+      </c>
+      <c r="F1431" t="inlineStr"/>
+      <c r="G1431" t="n">
+        <v>6083832</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>419.9500122070312</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>423</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>408.6000061035156</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>410.1000061035156</v>
+      </c>
+      <c r="F1432" t="inlineStr"/>
+      <c r="G1432" t="n">
+        <v>3892406</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1432"/>
+  <dimension ref="A1:R1436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80099,7 +80099,7 @@
         <v>3</v>
       </c>
       <c r="O1423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1423" t="n">
         <v>0</v>
@@ -80377,7 +80377,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80429,7 +80431,9 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" s="2" t="n">
@@ -80481,7 +80485,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80533,7 +80539,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80585,7 +80593,217 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>400.1000061035156</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>405.25</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>390.2000122070312</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>400.8500061035156</v>
+      </c>
+      <c r="F1433" t="inlineStr"/>
+      <c r="G1433" t="n">
+        <v>5467340</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>407</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>414</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>385.2000122070312</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>407.6499938964844</v>
+      </c>
+      <c r="F1434" t="inlineStr"/>
+      <c r="G1434" t="n">
+        <v>8736571</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>410</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>430.9500122070312</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>408.0499877929688</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>427.6499938964844</v>
+      </c>
+      <c r="F1435" t="inlineStr"/>
+      <c r="G1435" t="n">
+        <v>7673095</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>440.8500061035156</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>481.5</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>436.25</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>476.2999877929688</v>
+      </c>
+      <c r="F1436" t="inlineStr"/>
+      <c r="G1436" t="n">
+        <v>23854138</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1436"/>
+  <dimension ref="A1:R1443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80647,7 +80647,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80699,7 +80701,9 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1435">
       <c r="A1435" s="2" t="n">
@@ -80751,27 +80755,29 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="B1436" t="n">
-        <v>440.8500061035156</v>
+        <v>433</v>
       </c>
       <c r="C1436" t="n">
-        <v>481.5</v>
+        <v>444.5</v>
       </c>
       <c r="D1436" t="n">
-        <v>436.25</v>
+        <v>429.25</v>
       </c>
       <c r="E1436" t="n">
-        <v>476.2999877929688</v>
+        <v>436.8999938964844</v>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="n">
-        <v>23854138</v>
+        <v>10326411</v>
       </c>
       <c r="H1436" t="n">
         <v>2025</v>
@@ -80780,7 +80786,7 @@
         <v>1</v>
       </c>
       <c r="J1436" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1436" t="n">
         <v>0</v>
@@ -80804,6 +80810,372 @@
         <v>0</v>
       </c>
       <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>440.8500061035156</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>481.5</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>436.25</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>476.2999877929688</v>
+      </c>
+      <c r="F1437" t="inlineStr"/>
+      <c r="G1437" t="n">
+        <v>23854138</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>485</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>501.7999877929688</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>428.2000122070312</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>433.5499877929688</v>
+      </c>
+      <c r="F1438" t="inlineStr"/>
+      <c r="G1438" t="n">
+        <v>46000882</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>415.1499938964844</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>419.8999938964844</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>398</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>407.1499938964844</v>
+      </c>
+      <c r="F1439" t="inlineStr"/>
+      <c r="G1439" t="n">
+        <v>22386317</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>416</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>421.2999877929688</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>394.7000122070312</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>400.1000061035156</v>
+      </c>
+      <c r="F1440" t="inlineStr"/>
+      <c r="G1440" t="n">
+        <v>15907300</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>411.6000061035156</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>416.2999877929688</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>404</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>406.2999877929688</v>
+      </c>
+      <c r="F1441" t="inlineStr"/>
+      <c r="G1441" t="n">
+        <v>10360639</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>406.3999938964844</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>411.7000122070312</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>401.7000122070312</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>403.0499877929688</v>
+      </c>
+      <c r="F1442" t="inlineStr"/>
+      <c r="G1442" t="n">
+        <v>4336358</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>401</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>403</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>393.75</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>395.0499877929688</v>
+      </c>
+      <c r="F1443" t="inlineStr"/>
+      <c r="G1443" t="n">
+        <v>4891361</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1443"/>
+  <dimension ref="A1:R1448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80809,7 +80809,9 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
@@ -80907,7 +80909,7 @@
         <v>5</v>
       </c>
       <c r="O1438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1438" t="n">
         <v>0</v>
@@ -80915,7 +80917,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -80967,7 +80971,9 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
@@ -81019,7 +81025,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -81071,7 +81079,9 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
@@ -81123,7 +81133,9 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
@@ -81175,7 +81187,269 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>395.1000061035156</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>399.1000061035156</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>378.6499938964844</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>381.4500122070312</v>
+      </c>
+      <c r="F1444" t="inlineStr"/>
+      <c r="G1444" t="n">
+        <v>6239370</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>383</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>367</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="F1445" t="inlineStr"/>
+      <c r="G1445" t="n">
+        <v>5917977</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>377.1499938964844</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>342</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>371.6499938964844</v>
+      </c>
+      <c r="F1446" t="inlineStr"/>
+      <c r="G1446" t="n">
+        <v>14383719</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>375</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>387.3999938964844</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>379.2999877929688</v>
+      </c>
+      <c r="F1447" t="inlineStr"/>
+      <c r="G1447" t="n">
+        <v>9279991</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>380</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>357</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>359.8999938964844</v>
+      </c>
+      <c r="F1448" t="inlineStr"/>
+      <c r="G1448" t="n">
+        <v>6916888</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1448"/>
+  <dimension ref="A1:R1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81241,7 +81241,9 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2" t="n">
@@ -81293,7 +81295,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81345,7 +81349,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81397,7 +81403,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81449,7 +81457,269 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>332.5499877929688</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>342.4500122070312</v>
+      </c>
+      <c r="F1449" t="inlineStr"/>
+      <c r="G1449" t="n">
+        <v>13437460</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>342.4500122070312</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>343.25</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>325.1499938964844</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>333.3500061035156</v>
+      </c>
+      <c r="F1450" t="inlineStr"/>
+      <c r="G1450" t="n">
+        <v>8430180</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>332</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>329.2999877929688</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>376.8500061035156</v>
+      </c>
+      <c r="F1451" t="inlineStr"/>
+      <c r="G1451" t="n">
+        <v>55921698</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>371.3999938964844</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>361.7000122070312</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>381.5499877929688</v>
+      </c>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="n">
+        <v>27929863</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>377.1499938964844</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>393</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>367.1000061035156</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>371.7000122070312</v>
+      </c>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="n">
+        <v>20754387</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1453"/>
+  <dimension ref="A1:R1462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81511,7 +81511,9 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
@@ -81563,7 +81565,9 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
@@ -81615,7 +81619,9 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2" t="n">
@@ -81667,7 +81673,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81719,7 +81727,477 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>364.9500122070312</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>369.3999938964844</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>359.1000061035156</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>364.1499938964844</v>
+      </c>
+      <c r="F1454" t="inlineStr"/>
+      <c r="G1454" t="n">
+        <v>10785069</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>363.1499938964844</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>370.8999938964844</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>360.7000122070312</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="F1455" t="inlineStr"/>
+      <c r="G1455" t="n">
+        <v>7546931</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>363.0499877929688</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>364.7000122070312</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>347.3999938964844</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>350.0499877929688</v>
+      </c>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="n">
+        <v>5933298</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>343.9500122070312</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>350.1499938964844</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>328</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="n">
+        <v>12212186</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>333.4500122070312</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>342</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>310.2999877929688</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>323.6000061035156</v>
+      </c>
+      <c r="F1458" t="inlineStr"/>
+      <c r="G1458" t="n">
+        <v>16542018</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>319.4500122070312</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>339.2999877929688</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>318.0499877929688</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>326.1499938964844</v>
+      </c>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="n">
+        <v>15287648</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>333.3999938964844</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>351.3999938964844</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>330.2999877929688</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>336.25</v>
+      </c>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="n">
+        <v>28399265</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>341</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>346.5</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>337.5499877929688</v>
+      </c>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="n">
+        <v>12571655</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>350.6499938964844</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>335</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="n">
+        <v>18398433</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1462"/>
+  <dimension ref="A1:R1471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
@@ -81781,7 +81781,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81833,7 +81835,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81885,7 +81889,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -81937,7 +81943,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -81981,7 +81989,7 @@
         <v>10</v>
       </c>
       <c r="O1458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1458" t="n">
         <v>0</v>
@@ -81989,7 +81997,9 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" s="2" t="n">
@@ -82041,7 +82051,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82093,7 +82105,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82145,7 +82159,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82197,7 +82213,477 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>343</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>349</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>335.7000122070312</v>
+      </c>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="n">
+        <v>6498796</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>333.4500122070312</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>322.0499877929688</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>330.6499938964844</v>
+      </c>
+      <c r="F1464" t="inlineStr"/>
+      <c r="G1464" t="n">
+        <v>8033534</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>340</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>342</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>333.2999877929688</v>
+      </c>
+      <c r="F1465" t="inlineStr"/>
+      <c r="G1465" t="n">
+        <v>8658207</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>336</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>327.5499877929688</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>329.3500061035156</v>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="n">
+        <v>5491120</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>334.2000122070312</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="n">
+        <v>5347960</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>334.6000061035156</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>361.9500122070312</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>334</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>353.6499938964844</v>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="n">
+        <v>22821539</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>366.75</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>357.8999938964844</v>
+      </c>
+      <c r="F1470" t="inlineStr"/>
+      <c r="G1470" t="n">
+        <v>13396119</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>360.2000122070312</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>374</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>352.5499877929688</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>361.3500061035156</v>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="n">
+        <v>17627620</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1471"/>
+  <dimension ref="A1:R1480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="Q131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R131" t="n">
         <v>1</v>
@@ -82267,7 +82267,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82319,7 +82321,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82371,7 +82375,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82423,7 +82429,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82475,7 +82483,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82527,7 +82537,9 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82579,7 +82591,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82631,7 +82645,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82683,7 +82699,477 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>379.75</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>364.6499938964844</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>371.5499877929688</v>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="n">
+        <v>15714495</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>379</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>383.9500122070312</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>365.4500122070312</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>370.3500061035156</v>
+      </c>
+      <c r="F1473" t="inlineStr"/>
+      <c r="G1473" t="n">
+        <v>12419010</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>371.7000122070312</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>371.7999877929688</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>362.2000122070312</v>
+      </c>
+      <c r="F1474" t="inlineStr"/>
+      <c r="G1474" t="n">
+        <v>6826431</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>353.2999877929688</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>354.6499938964844</v>
+      </c>
+      <c r="F1475" t="inlineStr"/>
+      <c r="G1475" t="n">
+        <v>7997212</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>356.9500122070312</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>367.2000122070312</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>351.8500061035156</v>
+      </c>
+      <c r="F1476" t="inlineStr"/>
+      <c r="G1476" t="n">
+        <v>7134693</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>356</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>346.6000061035156</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>350.1000061035156</v>
+      </c>
+      <c r="F1477" t="inlineStr"/>
+      <c r="G1477" t="n">
+        <v>5049493</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>350.6000061035156</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>342</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>358.5499877929688</v>
+      </c>
+      <c r="F1478" t="inlineStr"/>
+      <c r="G1478" t="n">
+        <v>7026372</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>351</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>365</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>351</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>359.75</v>
+      </c>
+      <c r="F1479" t="inlineStr"/>
+      <c r="G1479" t="n">
+        <v>6036464</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>357.9500122070312</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>360.7000122070312</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>344.1499938964844</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>350.2999877929688</v>
+      </c>
+      <c r="F1480" t="inlineStr"/>
+      <c r="G1480" t="n">
+        <v>5619293</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1480"/>
+  <dimension ref="A1:R1484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82753,7 +82753,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82797,7 +82799,7 @@
         <v>13</v>
       </c>
       <c r="O1473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1473" t="n">
         <v>0</v>
@@ -82805,7 +82807,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -82857,7 +82861,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -82909,7 +82915,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -82961,7 +82969,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83013,7 +83023,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83065,7 +83077,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83117,7 +83131,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83169,7 +83185,217 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>305</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>305</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="F1481" t="inlineStr"/>
+      <c r="G1481" t="n">
+        <v>8638161</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>347.8500061035156</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>348.9500122070312</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>338.7999877929688</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>344.3500061035156</v>
+      </c>
+      <c r="F1482" t="inlineStr"/>
+      <c r="G1482" t="n">
+        <v>4587642</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>343.8500061035156</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>347</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>337.6499938964844</v>
+      </c>
+      <c r="F1483" t="inlineStr"/>
+      <c r="G1483" t="n">
+        <v>3740535</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>345</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>348.3500061035156</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>340.2000122070312</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>346.2999877929688</v>
+      </c>
+      <c r="F1484" t="inlineStr"/>
+      <c r="G1484" t="n">
+        <v>5034547</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1484"/>
+  <dimension ref="A1:R1487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83239,7 +83239,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83291,7 +83293,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83343,7 +83347,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83395,7 +83401,165 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>351</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>362</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>350.0499877929688</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>360.7999877929688</v>
+      </c>
+      <c r="F1485" t="inlineStr"/>
+      <c r="G1485" t="n">
+        <v>6028677</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>362</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>369.7000122070312</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>359.1499938964844</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>367.0499877929688</v>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="n">
+        <v>6672237</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>374.25</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>362.3999938964844</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>370.8500061035156</v>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="n">
+        <v>6203259</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1487"/>
+  <dimension ref="A1:R1496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83231,7 +83231,7 @@
         <v>15</v>
       </c>
       <c r="O1481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1481" t="n">
         <v>0</v>
@@ -83455,7 +83455,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83507,7 +83509,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83559,7 +83563,477 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>372</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>377.5</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>368.2999877929688</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>375.0499877929688</v>
+      </c>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="n">
+        <v>5196338</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>377</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>382.4500122070312</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>372</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>373.7999877929688</v>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="n">
+        <v>5066546</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>376</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>377.2999877929688</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>373.8999938964844</v>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="n">
+        <v>5191977</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>373.8999938964844</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>384</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>370</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>371.1499938964844</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>7078638</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>373</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>361.2000122070312</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>6857970</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>365.4500122070312</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>354.1499938964844</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>361.2000122070312</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>4768768</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>362.6499938964844</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>366.8999938964844</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>359.0499877929688</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>360.4500122070312</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>3130264</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>360</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>360</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>345.1000061035156</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>349.7999877929688</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>3009130</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>349.7999877929688</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>365.6499938964844</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>349.7000122070312</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>352.2000122070312</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>9216875</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/RVNL.NS.xlsx
+++ b/stock_historical_data/1d/RVNL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1496"/>
+  <dimension ref="A1:R1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83617,7 +83617,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83669,7 +83671,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83721,7 +83725,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83765,7 +83771,7 @@
         <v>17</v>
       </c>
       <c r="O1491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1491" t="n">
         <v>0</v>
@@ -83773,7 +83779,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -83825,7 +83833,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -83877,7 +83887,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -83929,7 +83941,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -83981,7 +83995,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84033,7 +84049,529 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>355.1000061035156</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>352.6499938964844</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>354.6499938964844</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>3179424</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>355</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>356.4500122070312</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>339.2999877929688</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>341.5499877929688</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>3591336</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>329.2000122070312</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>342.5499877929688</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>329.0499877929688</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>339.9500122070312</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>6171128</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>343.25</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>346.2000122070312</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>331.4500122070312</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>3395213</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>320</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>327.2999877929688</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>323.1000061035156</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>5304658</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>338</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>362.8999938964844</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>337</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>359.4500122070312</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>13898275</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>360</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>361</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>357.0499877929688</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>5621942</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>359</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>376.7999877929688</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>372.7999877929688</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>15252942</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>372.7999877929688</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>382</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>371.3500061035156</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>376.25</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>8996131</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>417.5</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>378.3500061035156</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>409.6000061035156</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>45346967</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
